--- a/client/public/DestinationTables.xlsx
+++ b/client/public/DestinationTables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niraj\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data-mapster\client\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE7A8A1-B484-450D-B06A-1F179E29B75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D73F58-D0CD-4F9B-B91B-0747489E817C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{92539490-93EF-4BF2-87BD-0F11013D0042}"/>
+    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{92539490-93EF-4BF2-87BD-0F11013D0042}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
   <si>
     <t>TableName</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>Foreign Key</t>
+  </si>
+  <si>
+    <t>IsNullAllowed</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -477,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030D5DE3-D7CB-42C1-9169-C6F5B2F90D40}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="A1:F13"/>
+      <selection activeCell="G1" sqref="G1:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,9 +496,10 @@
     <col min="4" max="4" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -511,8 +518,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -528,8 +538,11 @@
       <c r="F2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -545,8 +558,11 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -565,8 +581,11 @@
       <c r="F4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -582,8 +601,11 @@
       <c r="F5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -599,8 +621,11 @@
       <c r="F6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -613,8 +638,11 @@
       <c r="E7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -630,8 +658,11 @@
       <c r="F8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -647,8 +678,11 @@
       <c r="E9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -661,8 +695,11 @@
       <c r="E10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -678,8 +715,11 @@
       <c r="F11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -695,8 +735,11 @@
       <c r="F12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -708,6 +751,9 @@
       </c>
       <c r="E13" t="s">
         <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
